--- a/views/files/org.xlsx
+++ b/views/files/org.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PUBLIC.DESKTOP-VNJH5TE\Desktop\Proj\brics-frontend\views\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PUBLIC.DESKTOP-VNJH5TE\Desktop\Exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F392E449-1420-44FA-B17F-E5A74F613E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1944EF21-28E1-40A3-9643-16B2B18B3C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="225" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Должность</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>Паспорт</t>
-  </si>
-  <si>
-    <t>Вид деятельности</t>
   </si>
   <si>
     <t>Участник</t>
@@ -474,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD1048576"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,10 +496,10 @@
   <sheetData>
     <row r="1" spans="1:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -514,10 +511,10 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>12</v>
@@ -531,12 +528,14 @@
       <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="R1"/>
       <c r="S1"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
@@ -554,6 +553,7 @@
       <c r="S2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
@@ -562,8 +562,16 @@
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
@@ -572,8 +580,16 @@
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
@@ -582,8 +598,16 @@
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
@@ -592,8 +616,16 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
@@ -602,8 +634,16 @@
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
@@ -612,8 +652,16 @@
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
@@ -622,8 +670,16 @@
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
@@ -632,6 +688,172 @@
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+    </row>
+    <row r="17" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+    </row>
+    <row r="18" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+    </row>
+    <row r="19" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -643,7 +865,7 @@
           <x14:formula1>
             <xm:f>Пользователи!$A$1:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G1048576</xm:sqref>
+          <xm:sqref>G20:G1048576 F1:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -666,32 +888,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/views/files/org.xlsx
+++ b/views/files/org.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PUBLIC.DESKTOP-VNJH5TE\Desktop\Exel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PUBLIC.DESKTOP-VNJH5TE\Desktop\Proj\brics-frontend\views\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1944EF21-28E1-40A3-9643-16B2B18B3C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757F0F15-BF36-4D15-96EC-272D2C60592F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="225" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="915" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Должность</t>
   </si>
@@ -119,6 +119,9 @@
       </rPr>
       <t>*</t>
     </r>
+  </si>
+  <si>
+    <t>Зеленый БРИКС</t>
   </si>
 </sst>
 </file>
@@ -473,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,7 +866,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{741A070D-E284-4B4C-A76E-30ADA1392CEB}">
           <x14:formula1>
-            <xm:f>Пользователи!$A$1:$A$6</xm:f>
+            <xm:f>Пользователи!$A$1:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>G20:G1048576 F1:F1048576</xm:sqref>
         </x14:dataValidation>
@@ -875,10 +878,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE09A7E-33FB-443D-8F01-16E2764D09FC}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,26 +896,31 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>

--- a/views/files/org.xlsx
+++ b/views/files/org.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PUBLIC.DESKTOP-VNJH5TE\Desktop\Proj\brics-frontend\views\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757F0F15-BF36-4D15-96EC-272D2C60592F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4659B2A-8F7B-4454-A2FA-40A9400404A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="915" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="1260" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -880,7 +880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE09A7E-33FB-443D-8F01-16E2764D09FC}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
